--- a/CI880V_0319/CI8880V.xlsx
+++ b/CI880V_0319/CI8880V.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raczl\Desktop\CI880V_OSGyak\CI880V_0319\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raczl\Desktop\CI880V_OSGyak\CI880V_0326\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D905918-8D71-4C1A-AF1F-07C135B32848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308FC2B1-FC6E-49E9-88A6-366D4D479E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{CFA3FC6C-ABD9-4797-A3C4-77E5B560CD3E}"/>
+    <workbookView xWindow="11438" yWindow="0" windowWidth="11684" windowHeight="13763" xr2:uid="{CFA3FC6C-ABD9-4797-A3C4-77E5B560CD3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -483,6 +483,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,9 +503,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE48E069-61B8-458E-B172-BF7AF5CAD8C4}">
   <dimension ref="A1:AY53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AQ17" sqref="AQ17"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1184,14 +1184,14 @@
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.45">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
@@ -1450,16 +1450,16 @@
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.45">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
       <c r="H21" t="s">
         <v>1</v>
       </c>
@@ -1501,15 +1501,15 @@
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
       <c r="AT21" s="1"/>
-      <c r="AV21" s="37" t="s">
+      <c r="AV21" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AW21" s="37"/>
-      <c r="AX21" s="37"/>
-      <c r="AY21" s="37"/>
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="38"/>
+      <c r="AY21" s="38"/>
     </row>
     <row r="22" spans="1:51" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="42"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="18" t="s">
         <v>1</v>
       </c>
@@ -1566,14 +1566,14 @@
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
-      <c r="AV22" s="37" t="s">
+      <c r="AV22" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="AW22" s="37"/>
-      <c r="AX22" s="37" t="s">
+      <c r="AW22" s="38"/>
+      <c r="AX22" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AY22" s="37"/>
+      <c r="AY22" s="38"/>
     </row>
     <row r="23" spans="1:51" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
@@ -1635,14 +1635,14 @@
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
       <c r="AT23" s="1"/>
-      <c r="AV23" s="37" t="s">
+      <c r="AV23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AW23" s="37"/>
-      <c r="AX23" s="37" t="s">
+      <c r="AW23" s="38"/>
+      <c r="AX23" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AY23" s="37"/>
+      <c r="AY23" s="38"/>
     </row>
     <row r="24" spans="1:51" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
@@ -1704,14 +1704,14 @@
       <c r="AR24" s="23"/>
       <c r="AS24" s="23"/>
       <c r="AT24" s="23"/>
-      <c r="AV24" s="37" t="s">
+      <c r="AV24" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AW24" s="37"/>
-      <c r="AX24" s="37" t="s">
+      <c r="AW24" s="38"/>
+      <c r="AX24" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AY24" s="37"/>
+      <c r="AY24" s="38"/>
     </row>
     <row r="25" spans="1:51" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
@@ -1773,14 +1773,14 @@
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
       <c r="AT25" s="1"/>
-      <c r="AV25" s="37" t="s">
+      <c r="AV25" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AW25" s="37"/>
-      <c r="AX25" s="37" t="s">
+      <c r="AW25" s="38"/>
+      <c r="AX25" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="AY25" s="37"/>
+      <c r="AY25" s="38"/>
     </row>
     <row r="26" spans="1:51" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
@@ -2237,14 +2237,14 @@
       </c>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.45">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
@@ -2541,85 +2541,93 @@
       </c>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.45">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.45">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37" t="s">
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.45">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37" t="s">
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37" t="s">
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37" t="s">
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A46:F46"/>
     <mergeCell ref="A52:F52"/>
     <mergeCell ref="A53:F53"/>
     <mergeCell ref="AV21:AY21"/>
@@ -2636,14 +2644,6 @@
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A46:F46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
